--- a/zb/doc/db.xlsx
+++ b/zb/doc/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudeshan/work/douyu/ckadminlte/zb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF165E-F1EB-0E4A-9EEC-F1E854E29F23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCD9209-1B86-AA41-9513-442825D3655E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="15000" xr2:uid="{76D06080-15AA-E24F-B6B1-57091090A72F}"/>
+    <workbookView xWindow="26080" yWindow="-18260" windowWidth="24940" windowHeight="15000" xr2:uid="{76D06080-15AA-E24F-B6B1-57091090A72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>IP信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,14 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>区号，IP，创建时间，查询时间，查询次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areacode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>state,province,city,postcode,areacode,创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,7 +168,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>027，223.96.247.17，创建时间，查询时间，查询次数</t>
+    <t>中国，湖北，武汉，430000，027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政编码，IP，创建时间，查询时间，查询次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430064，223.96.247.17，创建时间，查询时间，查询次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C1847B-A141-BE42-9570-37FCF597E224}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -697,15 +701,18 @@
     </row>
     <row r="11" spans="1:5">
       <c r="D11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12">
-        <v>27</v>
+        <v>430060</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -777,10 +784,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -796,7 +803,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:10">

--- a/zb/doc/db.xlsx
+++ b/zb/doc/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudeshan/work/douyu/ckadminlte/zb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCD9209-1B86-AA41-9513-442825D3655E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A966487E-2294-9E44-A329-EA0F9E6F2DFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26080" yWindow="-18260" windowWidth="24940" windowHeight="15000" xr2:uid="{76D06080-15AA-E24F-B6B1-57091090A72F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>IP信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,30 @@
   </si>
   <si>
     <t>postcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮政编码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，IP，创建时间，查询时间，查询次数</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,6 +241,29 @@
       <color rgb="FF222222"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -253,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +320,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C1847B-A141-BE42-9570-37FCF597E224}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -700,7 +753,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
@@ -786,8 +839,8 @@
       <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
+      <c r="E21" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10">
